--- a/Check.xlsx
+++ b/Check.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
   <si>
     <t>Чек-лист тестирования мобильного приложения</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>7. Тестирование производительности</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
@@ -543,16 +546,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,7 +864,7 @@
   <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,13 +914,13 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="9"/>
@@ -932,11 +935,13 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -949,11 +954,11 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -966,11 +971,13 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -983,11 +990,11 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="9"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1000,11 +1007,13 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1017,11 +1026,13 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1034,11 +1045,13 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1051,11 +1064,13 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1068,11 +1083,13 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1085,11 +1102,13 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1102,11 +1121,11 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="9"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1119,11 +1138,13 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1136,11 +1157,13 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1153,11 +1176,13 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1170,11 +1195,13 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1187,11 +1214,13 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1204,11 +1233,13 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1221,11 +1252,13 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1238,11 +1271,13 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1255,11 +1290,13 @@
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1272,11 +1309,13 @@
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1289,11 +1328,13 @@
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1306,11 +1347,13 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1323,11 +1366,13 @@
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1340,11 +1385,13 @@
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1357,11 +1404,13 @@
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1374,11 +1423,13 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1391,11 +1442,13 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1408,11 +1461,13 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D32" s="9"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1425,11 +1480,13 @@
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D33" s="9"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1442,11 +1499,13 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1459,11 +1518,13 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1476,11 +1537,13 @@
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D36" s="9"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1493,11 +1556,13 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D37" s="9"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1510,11 +1575,13 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D38" s="9"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1527,11 +1594,13 @@
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D39" s="9"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1544,11 +1613,13 @@
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D40" s="9"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1561,11 +1632,13 @@
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1578,11 +1651,13 @@
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D42" s="9"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1595,11 +1670,13 @@
       <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1612,11 +1689,13 @@
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D44" s="9"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1629,11 +1708,13 @@
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D45" s="9"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1646,11 +1727,13 @@
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D46" s="9"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -1663,11 +1746,13 @@
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D47" s="9"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -1680,11 +1765,13 @@
       <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A48" s="13"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D48" s="9"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -1697,11 +1784,11 @@
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="13"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="9"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -1714,11 +1801,13 @@
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D50" s="9"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -1731,11 +1820,13 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D51" s="9"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1748,11 +1839,13 @@
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D52" s="9"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -1765,11 +1858,13 @@
       <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D53" s="9"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -1782,11 +1877,13 @@
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D54" s="9"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -1799,11 +1896,13 @@
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="13"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D55" s="9"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -1816,11 +1915,13 @@
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D56" s="9"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -1833,11 +1934,13 @@
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="13"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D57" s="9"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -1850,11 +1953,13 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="13"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D58" s="9"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -1867,11 +1972,13 @@
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="13"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D59" s="9"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -1884,11 +1991,13 @@
       <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="13"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="14"/>
+      <c r="C60" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D60" s="9"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -1901,11 +2010,13 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="13"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="14"/>
+      <c r="C61" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D61" s="9"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -1918,11 +2029,13 @@
       <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="14"/>
+      <c r="C62" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D62" s="9"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -1935,11 +2048,11 @@
       <c r="M62" s="6"/>
     </row>
     <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="9"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -1952,11 +2065,13 @@
       <c r="M63" s="6"/>
     </row>
     <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="13"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D64" s="9"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -1969,11 +2084,13 @@
       <c r="M64" s="6"/>
     </row>
     <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="14"/>
+      <c r="C65" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D65" s="9"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -1986,11 +2103,13 @@
       <c r="M65" s="6"/>
     </row>
     <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="13"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D66" s="9"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2003,11 +2122,13 @@
       <c r="M66" s="6"/>
     </row>
     <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D67" s="9"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -2020,11 +2141,13 @@
       <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A68" s="13"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="14"/>
+      <c r="C68" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D68" s="9"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -2037,11 +2160,13 @@
       <c r="M68" s="6"/>
     </row>
     <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D69" s="9"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -2054,11 +2179,13 @@
       <c r="M69" s="6"/>
     </row>
     <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="14"/>
+      <c r="C70" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D70" s="9"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -2071,11 +2198,13 @@
       <c r="M70" s="6"/>
     </row>
     <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="13"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="14"/>
+      <c r="C71" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D71" s="9"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -2088,11 +2217,13 @@
       <c r="M71" s="6"/>
     </row>
     <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="13"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="14"/>
+      <c r="C72" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D72" s="9"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -2105,11 +2236,13 @@
       <c r="M72" s="6"/>
     </row>
     <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="13"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="14"/>
+      <c r="C73" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D73" s="9"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2122,11 +2255,13 @@
       <c r="M73" s="6"/>
     </row>
     <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="13"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="14"/>
+      <c r="C74" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D74" s="9"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -2139,11 +2274,13 @@
       <c r="M74" s="6"/>
     </row>
     <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="13"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D75" s="9"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -2156,11 +2293,13 @@
       <c r="M75" s="6"/>
     </row>
     <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="13"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="D76" s="9"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -2173,11 +2312,13 @@
       <c r="M76" s="6"/>
     </row>
     <row r="77" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A77" s="13"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="14"/>
+      <c r="C77" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D77" s="9"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -2190,11 +2331,13 @@
       <c r="M77" s="6"/>
     </row>
     <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="13"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D78" s="9"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -2207,11 +2350,13 @@
       <c r="M78" s="6"/>
     </row>
     <row r="79" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="13"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D79" s="9"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -2224,11 +2369,13 @@
       <c r="M79" s="6"/>
     </row>
     <row r="80" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A80" s="13"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D80" s="9"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -2241,11 +2388,13 @@
       <c r="M80" s="6"/>
     </row>
     <row r="81" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="13"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D81" s="9"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -2258,11 +2407,13 @@
       <c r="M81" s="6"/>
     </row>
     <row r="82" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="13"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="14"/>
+      <c r="C82" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D82" s="9"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -2275,11 +2426,11 @@
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="13"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="14"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="9"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -2292,11 +2443,13 @@
       <c r="M83" s="6"/>
     </row>
     <row r="84" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="13"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="14"/>
+      <c r="C84" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D84" s="9"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -2309,11 +2462,11 @@
       <c r="M84" s="6"/>
     </row>
     <row r="85" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="13"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="14"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="9"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -2326,11 +2479,13 @@
       <c r="M85" s="6"/>
     </row>
     <row r="86" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="13"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="14"/>
+      <c r="C86" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D86" s="9"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -2343,11 +2498,13 @@
       <c r="M86" s="6"/>
     </row>
     <row r="87" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="13"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="14"/>
+      <c r="C87" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D87" s="9"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -2360,11 +2517,13 @@
       <c r="M87" s="6"/>
     </row>
     <row r="88" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="13"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="14"/>
+      <c r="C88" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D88" s="9"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -2377,11 +2536,13 @@
       <c r="M88" s="6"/>
     </row>
     <row r="89" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="13"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="14"/>
+      <c r="C89" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D89" s="9"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -2394,11 +2555,13 @@
       <c r="M89" s="6"/>
     </row>
     <row r="90" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="13"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D90" s="9"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -2411,11 +2574,13 @@
       <c r="M90" s="6"/>
     </row>
     <row r="91" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="13"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D91" s="9"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -2428,11 +2593,13 @@
       <c r="M91" s="6"/>
     </row>
     <row r="92" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="13"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="14"/>
+      <c r="C92" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D92" s="9"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -2445,11 +2612,13 @@
       <c r="M92" s="6"/>
     </row>
     <row r="93" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="13"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="14"/>
+      <c r="C93" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D93" s="9"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -2462,272 +2631,317 @@
       <c r="M93" s="6"/>
     </row>
     <row r="94" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="16" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="9"/>
     </row>
     <row r="95" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="15"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="14"/>
+      <c r="C95" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D95" s="9"/>
     </row>
     <row r="96" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="15"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="14"/>
+      <c r="C96" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D96" s="9"/>
     </row>
     <row r="97" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="16"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="14"/>
+      <c r="C98" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="16"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="14"/>
+      <c r="C99" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="15"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="14"/>
+      <c r="C101" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="15"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="14"/>
+      <c r="C102" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="15"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="14"/>
+      <c r="C103" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="15"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="14"/>
+      <c r="C104" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>123</v>
+      <c r="C105" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="15"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="14"/>
+      <c r="C106" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="15"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="14"/>
+      <c r="C107" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="15"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="14"/>
+      <c r="C108" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="15"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="14"/>
+      <c r="C109" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="15"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="14"/>
+      <c r="C110" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="15"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="14"/>
+      <c r="C111" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="15"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="14"/>
+      <c r="C112" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="15"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="14"/>
+      <c r="C113" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A114" s="15"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="14"/>
+      <c r="C114" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="15"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="14"/>
+      <c r="C115" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>123</v>
+      <c r="C116" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="16"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="14"/>
+      <c r="C117" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="118" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="16"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="14"/>
+      <c r="C118" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="16"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="14"/>
+      <c r="C119" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="16"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="14"/>
+      <c r="C120" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="16"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="14"/>
+      <c r="C121" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="14" t="s">
-        <v>123</v>
+      <c r="C122" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="15"/>
+      <c r="A123" s="14"/>
       <c r="B123" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="14"/>
+      <c r="C123" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="15"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="14"/>
+      <c r="C124" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="125" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="15"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="14"/>
+      <c r="C125" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="7">
+    <mergeCell ref="A3:A93"/>
+    <mergeCell ref="A94:A96"/>
     <mergeCell ref="A116:A121"/>
     <mergeCell ref="A122:A125"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="C122:C125"/>
     <mergeCell ref="A97:A99"/>
-    <mergeCell ref="C97:C99"/>
     <mergeCell ref="A100:A104"/>
-    <mergeCell ref="C100:C104"/>
     <mergeCell ref="A105:A115"/>
-    <mergeCell ref="C105:C115"/>
-    <mergeCell ref="A3:A93"/>
-    <mergeCell ref="C3:C93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="C94:C96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
